--- a/biology/Zoologie/Ameiurus_nebulosus/Ameiurus_nebulosus.xlsx
+++ b/biology/Zoologie/Ameiurus_nebulosus/Ameiurus_nebulosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ameiurus nebulosus
 La barbotte brune (Ameiurus nebulosus) est une espèce de poissons-chats de la famille des Ictaluridae. Elle vit dans les eaux douces et plus rarement saumâtres du versant Atlantique de l'Amérique du Nord. On la trouve jusqu'à une profondeur de 40 m.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longueur du mâle : 55 cm.
 C'est un poisson gras pesant jusqu'à 2,8 kg.
@@ -546,7 +560,9 @@
           <t>Aspects halieutiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son intérêt pour les pêcheries est jugé mineur ; il est parfois recherché pour la pêche sportive et par certains aquariophiles.
 </t>
@@ -577,10 +593,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La barbotte brune est un poisson de fond et d'eaux lentes ou stagnantes.
-Il a été scientifiquement constaté (1990) qu'il grandit plus et plus vite dans les réservoirs créés par les barrages de castors que dans un milieu comparable sans castors[1]. Il y grandit même plus que dans les lacs proches[1].
+Il a été scientifiquement constaté (1990) qu'il grandit plus et plus vite dans les réservoirs créés par les barrages de castors que dans un milieu comparable sans castors. Il y grandit même plus que dans les lacs proches.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Invasivité hors de son milieu</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson a été introduit en Iran et en Turquie où son impact écologique est jugé néfaste.
 Il est réputé très résistant aux conditions environnementales difficiles, notamment à la pollution de l'eau.
